--- a/analysis/edcr/out/threshold/cobalt_shift_new_20_test_results.xlsx
+++ b/analysis/edcr/out/threshold/cobalt_shift_new_20_test_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -79,10 +79,7 @@
     <t>CNN_256_filters_3_kernels_predictions</t>
   </si>
   <si>
-    <t>CNN_128_filters_3_kernels_predictions</t>
-  </si>
-  <si>
-    <t>CNN_256_filters_5_kernels_predictions</t>
+    <t>CNN_Attention_128_filters_5_kernels_predictions</t>
   </si>
   <si>
     <t>LSTM_32_layers_predictions</t>
@@ -531,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -585,7 +582,7 @@
         <v>-0.007092198581560478</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -647,257 +644,263 @@
         <v>0.1163398692810455</v>
       </c>
       <c r="T3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.8305084745762712</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="E4">
-        <v>0.6282051282051282</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="F4">
-        <v>0.7153284671532847</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="G4">
-        <v>0.8305084745762712</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="H4">
-        <v>0.6282051282051282</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I4">
-        <v>0.7153284671532847</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="J4">
         <v>0.1547619047619048</v>
       </c>
       <c r="K4">
-        <v>0.8333333333333334</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L4">
-        <v>0.7692307692307693</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="M4">
-        <v>0.8</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="N4">
-        <v>0.002824858757062176</v>
+        <v>-0.01305683563748083</v>
       </c>
       <c r="O4">
-        <v>0.1410256410256411</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.08467153284671536</v>
+        <v>-0.005167173252279778</v>
       </c>
       <c r="Q4">
-        <v>0.003401360544217723</v>
+        <v>-0.01587301587301592</v>
       </c>
       <c r="R4">
-        <v>0.2244897959183674</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1183673469387756</v>
+        <v>-0.007092198581560478</v>
       </c>
       <c r="T4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.8305084745762712</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="E5">
-        <v>0.6282051282051282</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="F5">
-        <v>0.7153284671532847</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="G5">
-        <v>0.8305084745762712</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="H5">
-        <v>0.6282051282051282</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I5">
-        <v>0.7153284671532847</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="J5">
         <v>0.1547619047619048</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="L5">
-        <v>0.7692307692307693</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="N5">
-        <v>0.002824858757062176</v>
+        <v>0.02464157706093184</v>
       </c>
       <c r="O5">
-        <v>0.1410256410256411</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="P5">
-        <v>0.08467153284671536</v>
+        <v>0.08476190476190459</v>
       </c>
       <c r="Q5">
-        <v>0.003401360544217723</v>
+        <v>0.02995642701525047</v>
       </c>
       <c r="R5">
-        <v>0.2244897959183674</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="S5">
-        <v>0.1183673469387756</v>
+        <v>0.1163398692810455</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.8235294117647058</v>
+        <v>0.9375</v>
       </c>
       <c r="E6">
-        <v>0.358974358974359</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="G6">
-        <v>0.8235294117647058</v>
+        <v>0.9375</v>
       </c>
       <c r="H6">
-        <v>0.358974358974359</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="J6">
         <v>0.1547619047619048</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>0.7692307692307693</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="M6">
-        <v>0.8</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="N6">
-        <v>0.009803921568627527</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4102564102564103</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.011904761904762</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.142857142857143</v>
+        <v>1.443289932012704E-16</v>
       </c>
       <c r="S6">
-        <v>0.6000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>0.8235294117647058</v>
+        <v>0.9375</v>
       </c>
       <c r="E7">
-        <v>0.358974358974359</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="G7">
-        <v>0.8235294117647058</v>
+        <v>0.9375</v>
       </c>
       <c r="H7">
-        <v>0.358974358974359</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="J7">
         <v>0.1547619047619048</v>
       </c>
       <c r="K7">
-        <v>0.8285714285714286</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>0.3717948717948718</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="M7">
-        <v>0.5132743362831858</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="N7">
-        <v>0.005042016806722782</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01282051282051283</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P7">
-        <v>0.01327433628318575</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.00612244897959195</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.03571428571428574</v>
+        <v>1.443289932012704E-16</v>
       </c>
       <c r="S7">
-        <v>0.0265486725663715</v>
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -951,15 +954,15 @@
         <v>25.24000000000002</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -1013,7 +1016,7 @@
         <v>24.72549019607845</v>
       </c>
       <c r="T9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/out/threshold/cobalt_shift_new_20_test_results.xlsx
+++ b/analysis/edcr/out/threshold/cobalt_shift_new_20_test_results.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
   <si>
+    <t>Exclude</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -83,6 +86,18 @@
   </si>
   <si>
     <t>LSTM_32_layers_predictions</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>CNNA</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
   </si>
   <si>
     <t>correction</t>
@@ -455,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,501 +537,2584 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.8225806451612904</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="F2">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G2">
-        <v>0.8225806451612904</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="H2">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="I2">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="J2">
-        <v>0.1547619047619048</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="K2">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L2">
         <v>0.8095238095238095</v>
       </c>
-      <c r="L2">
-        <v>0.6538461538461539</v>
-      </c>
       <c r="M2">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="N2">
         <v>0.7234042553191489</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-0.01305683563748083</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>-0.005167173252279778</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-0.01587301587301592</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>-0.007092198581560478</v>
       </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3">
-        <v>0.5</v>
+      <c r="C3" t="s">
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.8225806451612904</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="F3">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G3">
-        <v>0.8225806451612904</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="H3">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="I3">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="J3">
-        <v>0.1547619047619048</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="K3">
-        <v>0.8472222222222222</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="L3">
-        <v>0.782051282051282</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M3">
-        <v>0.8133333333333332</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N3">
-        <v>0.02464157706093184</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="O3">
-        <v>0.1282051282051282</v>
+        <v>-0.01305683563748083</v>
       </c>
       <c r="P3">
-        <v>0.08476190476190459</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.02995642701525047</v>
+        <v>-0.005167173252279778</v>
       </c>
       <c r="R3">
-        <v>0.196078431372549</v>
+        <v>-0.01587301587301592</v>
       </c>
       <c r="S3">
-        <v>0.1163398692810455</v>
-      </c>
-      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>-0.007092198581560478</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.8225806451612904</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="F4">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G4">
-        <v>0.8225806451612904</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="H4">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="I4">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="J4">
-        <v>0.1547619047619048</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="K4">
-        <v>0.8095238095238095</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="L4">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="M4">
-        <v>0.7234042553191489</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N4">
-        <v>-0.01305683563748083</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-0.005167173252279778</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-0.01587301587301592</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-0.007092198581560478</v>
-      </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.8225806451612904</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="F5">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G5">
-        <v>0.8225806451612904</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="H5">
-        <v>0.6538461538461539</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="I5">
-        <v>0.7285714285714286</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="J5">
-        <v>0.1547619047619048</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="K5">
-        <v>0.8472222222222222</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="L5">
-        <v>0.782051282051282</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="M5">
-        <v>0.8133333333333332</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N5">
-        <v>0.02464157706093184</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="O5">
-        <v>0.1282051282051282</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.08476190476190459</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02995642701525047</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.196078431372549</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1163398692810455</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.9375</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.1923076923076923</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="F6">
-        <v>0.3191489361702128</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G6">
-        <v>0.9375</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="H6">
-        <v>0.1923076923076923</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="I6">
-        <v>0.3191489361702128</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="J6">
-        <v>0.1547619047619048</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="L6">
-        <v>0.1923076923076923</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M6">
-        <v>0.3191489361702128</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="O6">
-        <v>2.775557561562891E-17</v>
+        <v>-0.01305683563748083</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.005167173252279778</v>
       </c>
       <c r="R6">
-        <v>1.443289932012704E-16</v>
+        <v>-0.01587301587301592</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="T6">
+        <v>-0.007092198581560478</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F7">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G7">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H7">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I7">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J7">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K7">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L7">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="M7">
+        <v>0.782051282051282</v>
+      </c>
+      <c r="N7">
+        <v>0.8133333333333332</v>
+      </c>
+      <c r="O7">
+        <v>0.02464157706093184</v>
+      </c>
+      <c r="P7">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="Q7">
+        <v>0.08476190476190459</v>
+      </c>
+      <c r="R7">
+        <v>0.02995642701525047</v>
+      </c>
+      <c r="S7">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="T7">
+        <v>0.1163398692810455</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F8">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G8">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H8">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I8">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J8">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K8">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L8">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="M8">
+        <v>0.782051282051282</v>
+      </c>
+      <c r="N8">
+        <v>0.8133333333333332</v>
+      </c>
+      <c r="O8">
+        <v>0.02464157706093184</v>
+      </c>
+      <c r="P8">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="Q8">
+        <v>0.08476190476190459</v>
+      </c>
+      <c r="R8">
+        <v>0.02995642701525047</v>
+      </c>
+      <c r="S8">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="T8">
+        <v>0.1163398692810455</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F9">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G9">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H9">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I9">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J9">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K9">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L9">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="M9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.7375886524822695</v>
+      </c>
+      <c r="O9">
+        <v>0.002816180235534982</v>
+      </c>
+      <c r="P9">
+        <v>0.01282051282051277</v>
+      </c>
+      <c r="Q9">
+        <v>0.00901722391084081</v>
+      </c>
+      <c r="R9">
+        <v>0.003423591658885664</v>
+      </c>
+      <c r="S9">
+        <v>0.01960784313725483</v>
+      </c>
+      <c r="T9">
+        <v>0.01237658183840895</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F10">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G10">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H10">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I10">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J10">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K10">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L10">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="M10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.7375886524822695</v>
+      </c>
+      <c r="O10">
+        <v>0.002816180235534982</v>
+      </c>
+      <c r="P10">
+        <v>0.01282051282051277</v>
+      </c>
+      <c r="Q10">
+        <v>0.00901722391084081</v>
+      </c>
+      <c r="R10">
+        <v>0.003423591658885664</v>
+      </c>
+      <c r="S10">
+        <v>0.01960784313725483</v>
+      </c>
+      <c r="T10">
+        <v>0.01237658183840895</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F11">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G11">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H11">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I11">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J11">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K11">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L11">
+        <v>0.8450704225352113</v>
+      </c>
+      <c r="M11">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="N11">
+        <v>0.8053691275167785</v>
+      </c>
+      <c r="O11">
+        <v>0.02248977737392088</v>
+      </c>
+      <c r="P11">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="Q11">
+        <v>0.07679769894534982</v>
+      </c>
+      <c r="R11">
+        <v>0.02734051367025676</v>
+      </c>
+      <c r="S11">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="T11">
+        <v>0.1054086063955782</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F12">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G12">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H12">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I12">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J12">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K12">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L12">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="M12">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="N12">
+        <v>0.7234042553191489</v>
+      </c>
+      <c r="O12">
+        <v>-0.01305683563748083</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>-0.005167173252279778</v>
+      </c>
+      <c r="R12">
+        <v>-0.01587301587301592</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>-0.007092198581560478</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F13">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G13">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H13">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I13">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J13">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K13">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L13">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="M13">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="N13">
+        <v>0.7234042553191489</v>
+      </c>
+      <c r="O13">
+        <v>-0.01305683563748083</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>-0.005167173252279778</v>
+      </c>
+      <c r="R13">
+        <v>-0.01587301587301592</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>-0.007092198581560478</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F14">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G14">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H14">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I14">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J14">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K14">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L14">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="M14">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="N14">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F15">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G15">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H15">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I15">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J15">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K15">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L15">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="M15">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="N15">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F16">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G16">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H16">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I16">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J16">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K16">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L16">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="M16">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="N16">
+        <v>0.7234042553191489</v>
+      </c>
+      <c r="O16">
+        <v>-0.01305683563748083</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-0.005167173252279778</v>
+      </c>
+      <c r="R16">
+        <v>-0.01587301587301592</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>-0.007092198581560478</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F17">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G17">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H17">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I17">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J17">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K17">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L17">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="M17">
+        <v>0.782051282051282</v>
+      </c>
+      <c r="N17">
+        <v>0.8133333333333332</v>
+      </c>
+      <c r="O17">
+        <v>0.02464157706093184</v>
+      </c>
+      <c r="P17">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="Q17">
+        <v>0.08476190476190459</v>
+      </c>
+      <c r="R17">
+        <v>0.02995642701525047</v>
+      </c>
+      <c r="S17">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="T17">
+        <v>0.1163398692810455</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F18">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G18">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H18">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I18">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J18">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K18">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L18">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="M18">
+        <v>0.782051282051282</v>
+      </c>
+      <c r="N18">
+        <v>0.8133333333333332</v>
+      </c>
+      <c r="O18">
+        <v>0.02464157706093184</v>
+      </c>
+      <c r="P18">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="Q18">
+        <v>0.08476190476190459</v>
+      </c>
+      <c r="R18">
+        <v>0.02995642701525047</v>
+      </c>
+      <c r="S18">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="T18">
+        <v>0.1163398692810455</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F19">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G19">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H19">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I19">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J19">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K19">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L19">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="M19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.7375886524822695</v>
+      </c>
+      <c r="O19">
+        <v>0.002816180235534982</v>
+      </c>
+      <c r="P19">
+        <v>0.01282051282051277</v>
+      </c>
+      <c r="Q19">
+        <v>0.00901722391084081</v>
+      </c>
+      <c r="R19">
+        <v>0.003423591658885664</v>
+      </c>
+      <c r="S19">
+        <v>0.01960784313725483</v>
+      </c>
+      <c r="T19">
+        <v>0.01237658183840895</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F20">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G20">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H20">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I20">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J20">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K20">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L20">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="M20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.7375886524822695</v>
+      </c>
+      <c r="O20">
+        <v>0.002816180235534982</v>
+      </c>
+      <c r="P20">
+        <v>0.01282051282051277</v>
+      </c>
+      <c r="Q20">
+        <v>0.00901722391084081</v>
+      </c>
+      <c r="R20">
+        <v>0.003423591658885664</v>
+      </c>
+      <c r="S20">
+        <v>0.01960784313725483</v>
+      </c>
+      <c r="T20">
+        <v>0.01237658183840895</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="F21">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="G21">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="H21">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="I21">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J21">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="K21">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L21">
+        <v>0.8450704225352113</v>
+      </c>
+      <c r="M21">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="N21">
+        <v>0.8053691275167785</v>
+      </c>
+      <c r="O21">
+        <v>0.02248977737392088</v>
+      </c>
+      <c r="P21">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="Q21">
+        <v>0.07679769894534982</v>
+      </c>
+      <c r="R21">
+        <v>0.02734051367025676</v>
+      </c>
+      <c r="S21">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="T21">
+        <v>0.1054086063955782</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
         <v>0.9375</v>
       </c>
-      <c r="E7">
+      <c r="F22">
         <v>0.1923076923076923</v>
       </c>
-      <c r="F7">
+      <c r="G22">
         <v>0.3191489361702128</v>
       </c>
-      <c r="G7">
+      <c r="H22">
         <v>0.9375</v>
       </c>
-      <c r="H7">
+      <c r="I22">
         <v>0.1923076923076923</v>
       </c>
-      <c r="I7">
+      <c r="J22">
         <v>0.3191489361702128</v>
       </c>
-      <c r="J7">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="K7">
+      <c r="K22">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L22">
         <v>0.9375</v>
       </c>
-      <c r="L7">
+      <c r="M22">
         <v>0.1923076923076923</v>
       </c>
-      <c r="M7">
+      <c r="N22">
         <v>0.3191489361702128</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>2.775557561562891E-17</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>1.443289932012704E-16</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.9375</v>
+      </c>
+      <c r="F23">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G23">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H23">
+        <v>0.9375</v>
+      </c>
+      <c r="I23">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J23">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K23">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L23">
+        <v>0.9375</v>
+      </c>
+      <c r="M23">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N23">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.9375</v>
+      </c>
+      <c r="F24">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G24">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H24">
+        <v>0.9375</v>
+      </c>
+      <c r="I24">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J24">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K24">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L24">
+        <v>0.9375</v>
+      </c>
+      <c r="M24">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N24">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.9375</v>
+      </c>
+      <c r="F25">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G25">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H25">
+        <v>0.9375</v>
+      </c>
+      <c r="I25">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J25">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K25">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L25">
+        <v>0.9375</v>
+      </c>
+      <c r="M25">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N25">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.9375</v>
+      </c>
+      <c r="F26">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G26">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H26">
+        <v>0.9375</v>
+      </c>
+      <c r="I26">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J26">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K26">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L26">
+        <v>0.9375</v>
+      </c>
+      <c r="M26">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N26">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.9375</v>
+      </c>
+      <c r="F27">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G27">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H27">
+        <v>0.9375</v>
+      </c>
+      <c r="I27">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J27">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K27">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L27">
+        <v>0.9375</v>
+      </c>
+      <c r="M27">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N27">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.9375</v>
+      </c>
+      <c r="F28">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G28">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H28">
+        <v>0.9375</v>
+      </c>
+      <c r="I28">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J28">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K28">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L28">
+        <v>0.9375</v>
+      </c>
+      <c r="M28">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N28">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0.9375</v>
+      </c>
+      <c r="F29">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G29">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H29">
+        <v>0.9375</v>
+      </c>
+      <c r="I29">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J29">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K29">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L29">
+        <v>0.9375</v>
+      </c>
+      <c r="M29">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N29">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>0.9375</v>
+      </c>
+      <c r="F30">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G30">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H30">
+        <v>0.9375</v>
+      </c>
+      <c r="I30">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J30">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K30">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L30">
+        <v>0.9375</v>
+      </c>
+      <c r="M30">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N30">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0.9375</v>
+      </c>
+      <c r="F31">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="G31">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="H31">
+        <v>0.9375</v>
+      </c>
+      <c r="I31">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="J31">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="K31">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L31">
+        <v>0.9375</v>
+      </c>
+      <c r="M31">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N31">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1.443289932012704E-16</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
         <v>0.25</v>
       </c>
-      <c r="E8">
+      <c r="F32">
         <v>0.0128205128205128</v>
       </c>
-      <c r="F8">
+      <c r="G32">
         <v>0.024390243902439</v>
       </c>
-      <c r="G8">
+      <c r="H32">
         <v>0.25</v>
       </c>
-      <c r="H8">
+      <c r="I32">
         <v>0.0128205128205128</v>
       </c>
-      <c r="I8">
+      <c r="J32">
         <v>0.024390243902439</v>
       </c>
-      <c r="J8">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="K8">
+      <c r="K32">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L32">
         <v>0.5245901639344263</v>
       </c>
-      <c r="L8">
+      <c r="M32">
         <v>0.8205128205128205</v>
       </c>
-      <c r="M8">
+      <c r="N32">
         <v>0.64</v>
       </c>
-      <c r="N8">
+      <c r="O32">
         <v>0.2745901639344263</v>
       </c>
-      <c r="O8">
+      <c r="P32">
         <v>0.8076923076923077</v>
       </c>
-      <c r="P8">
+      <c r="Q32">
         <v>0.615609756097561</v>
       </c>
-      <c r="Q8">
+      <c r="R32">
         <v>1.098360655737705</v>
       </c>
-      <c r="R8">
+      <c r="S32">
         <v>63.00000000000011</v>
       </c>
-      <c r="S8">
+      <c r="T32">
         <v>25.24000000000002</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
+      </c>
+      <c r="F33">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G33">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+      <c r="I33">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J33">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K33">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L33">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="M33">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="N33">
+        <v>0.64</v>
+      </c>
+      <c r="O33">
+        <v>0.2745901639344263</v>
+      </c>
+      <c r="P33">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="Q33">
+        <v>0.615609756097561</v>
+      </c>
+      <c r="R33">
+        <v>1.098360655737705</v>
+      </c>
+      <c r="S33">
+        <v>63.00000000000011</v>
+      </c>
+      <c r="T33">
+        <v>25.24000000000002</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.25</v>
+      </c>
+      <c r="F34">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G34">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H34">
+        <v>0.25</v>
+      </c>
+      <c r="I34">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J34">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K34">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L34">
+        <v>0.7101449275362319</v>
+      </c>
+      <c r="M34">
+        <v>0.6282051282051282</v>
+      </c>
+      <c r="N34">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="O34">
+        <v>0.4601449275362319</v>
+      </c>
+      <c r="P34">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Q34">
+        <v>0.6422764227642277</v>
+      </c>
+      <c r="R34">
+        <v>1.840579710144928</v>
+      </c>
+      <c r="S34">
+        <v>48.00000000000009</v>
+      </c>
+      <c r="T34">
+        <v>26.33333333333336</v>
+      </c>
+      <c r="U34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0.25</v>
+      </c>
+      <c r="F35">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G35">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H35">
+        <v>0.25</v>
+      </c>
+      <c r="I35">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J35">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K35">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L35">
+        <v>0.7101449275362319</v>
+      </c>
+      <c r="M35">
+        <v>0.6282051282051282</v>
+      </c>
+      <c r="N35">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="O35">
+        <v>0.4601449275362319</v>
+      </c>
+      <c r="P35">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Q35">
+        <v>0.6422764227642277</v>
+      </c>
+      <c r="R35">
+        <v>1.840579710144928</v>
+      </c>
+      <c r="S35">
+        <v>48.00000000000009</v>
+      </c>
+      <c r="T35">
+        <v>26.33333333333336</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>0.25</v>
+      </c>
+      <c r="F36">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G36">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H36">
+        <v>0.25</v>
+      </c>
+      <c r="I36">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J36">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K36">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L36">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="M36">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="N36">
+        <v>0.64</v>
+      </c>
+      <c r="O36">
+        <v>0.2745901639344263</v>
+      </c>
+      <c r="P36">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="Q36">
+        <v>0.615609756097561</v>
+      </c>
+      <c r="R36">
+        <v>1.098360655737705</v>
+      </c>
+      <c r="S36">
+        <v>63.00000000000011</v>
+      </c>
+      <c r="T36">
+        <v>25.24000000000002</v>
+      </c>
+      <c r="U36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>0.25</v>
+      </c>
+      <c r="F37">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G37">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="I37">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J37">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K37">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L37">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="M37">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="N37">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="O37">
+        <v>0.2579365079365079</v>
+      </c>
+      <c r="P37">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="Q37">
+        <v>0.6030607364897178</v>
+      </c>
+      <c r="R37">
+        <v>1.031746031746032</v>
+      </c>
+      <c r="S37">
+        <v>63.00000000000011</v>
+      </c>
+      <c r="T37">
+        <v>24.72549019607845</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
         <v>0.25</v>
       </c>
-      <c r="E9">
+      <c r="F38">
         <v>0.0128205128205128</v>
       </c>
-      <c r="F9">
+      <c r="G38">
         <v>0.024390243902439</v>
       </c>
-      <c r="G9">
+      <c r="H38">
         <v>0.25</v>
       </c>
-      <c r="H9">
+      <c r="I38">
         <v>0.0128205128205128</v>
       </c>
-      <c r="I9">
+      <c r="J38">
         <v>0.024390243902439</v>
       </c>
-      <c r="J9">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="K9">
+      <c r="K38">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L38">
+        <v>0.25</v>
+      </c>
+      <c r="M38">
+        <v>0.01282051282051282</v>
+      </c>
+      <c r="N38">
+        <v>0.02439024390243902</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2.081668171172169E-17</v>
+      </c>
+      <c r="Q38">
+        <v>2.081668171172169E-17</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1.623701173514294E-15</v>
+      </c>
+      <c r="T38">
+        <v>8.534839501805899E-16</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>0.25</v>
+      </c>
+      <c r="F39">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G39">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H39">
+        <v>0.25</v>
+      </c>
+      <c r="I39">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J39">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K39">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L39">
         <v>0.5079365079365079</v>
       </c>
-      <c r="L9">
+      <c r="M39">
         <v>0.8205128205128205</v>
       </c>
-      <c r="M9">
+      <c r="N39">
         <v>0.6274509803921569</v>
       </c>
-      <c r="N9">
+      <c r="O39">
         <v>0.2579365079365079</v>
       </c>
-      <c r="O9">
+      <c r="P39">
         <v>0.8076923076923077</v>
       </c>
-      <c r="P9">
+      <c r="Q39">
         <v>0.6030607364897178</v>
       </c>
-      <c r="Q9">
+      <c r="R39">
         <v>1.031746031746032</v>
       </c>
-      <c r="R9">
+      <c r="S39">
         <v>63.00000000000011</v>
       </c>
-      <c r="S9">
+      <c r="T39">
         <v>24.72549019607845</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+      <c r="E40">
+        <v>0.25</v>
+      </c>
+      <c r="F40">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G40">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H40">
+        <v>0.25</v>
+      </c>
+      <c r="I40">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J40">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K40">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L40">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="M40">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="N40">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="O40">
+        <v>0.2579365079365079</v>
+      </c>
+      <c r="P40">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="Q40">
+        <v>0.6030607364897178</v>
+      </c>
+      <c r="R40">
+        <v>1.031746031746032</v>
+      </c>
+      <c r="S40">
+        <v>63.00000000000011</v>
+      </c>
+      <c r="T40">
+        <v>24.72549019607845</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
         <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>0.25</v>
+      </c>
+      <c r="F41">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="G41">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H41">
+        <v>0.25</v>
+      </c>
+      <c r="I41">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="J41">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="K41">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="L41">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="M41">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="N41">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="O41">
+        <v>0.2579365079365079</v>
+      </c>
+      <c r="P41">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="Q41">
+        <v>0.6030607364897178</v>
+      </c>
+      <c r="R41">
+        <v>1.031746031746032</v>
+      </c>
+      <c r="S41">
+        <v>63.00000000000011</v>
+      </c>
+      <c r="T41">
+        <v>24.72549019607845</v>
+      </c>
+      <c r="U41" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
